--- a/test-data/ExecutionController.xlsx
+++ b/test-data/ExecutionController.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\TestNG_Automation\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Desktop\Proj1\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6D2D5F-71B0-4D24-B456-5E858510E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74370E3B-8CAC-4C10-9CF4-DEF5355EF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="1" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="179">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -541,9 +541,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Phantoon*1984a</t>
-  </si>
-  <si>
     <t>Origin</t>
   </si>
   <si>
@@ -572,6 +569,12 @@
   </si>
   <si>
     <t>Count across percentile buckets by Plant, Routing, Operation &amp; resource</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D3" sqref="D3:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1144,9 @@
       <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,9 +1159,7 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
@@ -1170,9 +1173,7 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
@@ -1186,9 +1187,7 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
@@ -1202,9 +1201,7 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
@@ -1218,9 +1215,7 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
     </row>
@@ -1234,9 +1229,7 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
     </row>
@@ -1250,9 +1243,7 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
     </row>
@@ -1266,9 +1257,7 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
@@ -1282,9 +1271,7 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
     </row>
@@ -1298,9 +1285,7 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
@@ -1314,9 +1299,7 @@
       <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
@@ -1330,9 +1313,7 @@
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
@@ -1346,9 +1327,7 @@
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
@@ -1362,9 +1341,7 @@
       <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
@@ -1378,9 +1355,7 @@
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
@@ -1394,9 +1369,7 @@
       <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
@@ -1410,9 +1383,7 @@
       <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
@@ -1426,9 +1397,7 @@
       <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
@@ -1442,9 +1411,7 @@
       <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="8"/>
       <c r="F21" s="7"/>
     </row>
@@ -1458,9 +1425,7 @@
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7"/>
     </row>
@@ -1474,9 +1439,7 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
@@ -1490,9 +1453,7 @@
       <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7"/>
     </row>
@@ -1506,9 +1467,7 @@
       <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
@@ -1522,9 +1481,7 @@
       <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="8"/>
       <c r="F26" s="7"/>
     </row>
@@ -1538,9 +1495,7 @@
       <c r="C27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="8"/>
       <c r="F27" s="7"/>
     </row>
@@ -1554,9 +1509,7 @@
       <c r="C28" s="6">
         <v>1</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="8"/>
       <c r="F28" s="7"/>
     </row>
@@ -1570,9 +1523,7 @@
       <c r="C29" s="6">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="8"/>
       <c r="F29" s="7"/>
     </row>
@@ -1586,9 +1537,7 @@
       <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="8"/>
       <c r="F30" s="7"/>
     </row>
@@ -1602,10 +1551,10 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="8"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,9 +1567,7 @@
       <c r="C32" s="6">
         <v>1</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="8"/>
       <c r="F32" s="7"/>
     </row>
@@ -1634,9 +1581,7 @@
       <c r="C33" s="6">
         <v>1</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="8"/>
       <c r="F33" s="7"/>
     </row>
@@ -1650,9 +1595,7 @@
       <c r="C34" s="6">
         <v>1</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="8"/>
       <c r="F34" s="7"/>
     </row>
@@ -1666,9 +1609,7 @@
       <c r="C35" s="6">
         <v>1</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
@@ -1682,9 +1623,7 @@
       <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="8"/>
       <c r="F36" s="7"/>
     </row>
@@ -1698,9 +1637,7 @@
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="8"/>
       <c r="F37" s="7"/>
     </row>
@@ -1714,9 +1651,7 @@
       <c r="C38" s="6">
         <v>1</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="8"/>
       <c r="F38" s="7"/>
     </row>
@@ -1730,9 +1665,7 @@
       <c r="C39" s="6">
         <v>1</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7"/>
     </row>
@@ -1746,9 +1679,7 @@
       <c r="C40" s="6">
         <v>1</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7"/>
     </row>
@@ -1762,9 +1693,7 @@
       <c r="C41" s="6">
         <v>1</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7"/>
     </row>
@@ -1778,9 +1707,7 @@
       <c r="C42" s="6">
         <v>1</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7"/>
     </row>
@@ -1794,9 +1721,7 @@
       <c r="C43" s="6">
         <v>1</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
     </row>
@@ -1810,9 +1735,7 @@
       <c r="C44" s="6">
         <v>1</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7"/>
     </row>
@@ -1826,9 +1749,7 @@
       <c r="C45" s="6">
         <v>1</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7"/>
     </row>
@@ -1842,9 +1763,7 @@
       <c r="C46" s="6">
         <v>1</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7"/>
     </row>
@@ -1858,9 +1777,7 @@
       <c r="C47" s="6">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="8"/>
       <c r="F47" s="7"/>
     </row>
@@ -1874,9 +1791,7 @@
       <c r="C48" s="6">
         <v>1</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D48" s="6"/>
       <c r="E48" s="8"/>
       <c r="F48" s="7"/>
     </row>
@@ -1890,9 +1805,7 @@
       <c r="C49" s="6">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D49" s="6"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7"/>
     </row>
@@ -1906,9 +1819,7 @@
       <c r="C50" s="6">
         <v>1</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="8"/>
       <c r="F50" s="7"/>
     </row>
@@ -1922,9 +1833,7 @@
       <c r="C51" s="6">
         <v>1</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="8"/>
       <c r="F51" s="7"/>
     </row>
@@ -1938,9 +1847,7 @@
       <c r="C52" s="6">
         <v>1</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
     </row>
@@ -1954,9 +1861,7 @@
       <c r="C53" s="6">
         <v>1</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="8"/>
       <c r="F53" s="7"/>
     </row>
@@ -1969,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
   <dimension ref="A1:G713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2015,7 +1920,9 @@
       <c r="C3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2028,7 +1935,9 @@
       <c r="C4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2041,7 +1950,9 @@
       <c r="C5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2054,7 +1965,9 @@
       <c r="C6" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -6848,8 +6761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6860,7 +6773,7 @@
     <col min="4" max="4" width="0" style="35" hidden="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39.7109375" style="7" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.140625" style="7" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.140625" style="7" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="18.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="53.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
@@ -6930,9 +6843,7 @@
       <c r="F2" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G2" s="32"/>
       <c r="H2" s="33" t="s">
         <v>158</v>
       </c>
@@ -6963,9 +6874,7 @@
       <c r="F3" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G3" s="32"/>
       <c r="H3" s="33" t="s">
         <v>158</v>
       </c>
@@ -6998,9 +6907,7 @@
       <c r="F4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
         <v>162</v>
       </c>
@@ -7029,9 +6936,7 @@
       <c r="F5" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
         <v>162</v>
       </c>
@@ -7061,9 +6966,7 @@
       <c r="F6" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
         <v>163</v>
       </c>
@@ -7090,9 +6993,7 @@
       <c r="F7" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
         <v>163</v>
       </c>
@@ -7122,9 +7023,7 @@
       <c r="F8" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G8" s="32"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="19" t="s">
@@ -7156,9 +7055,7 @@
       <c r="F9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G9" s="32"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="19" t="s">
@@ -7187,9 +7084,7 @@
       <c r="F10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G10" s="32"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="19" t="s">
@@ -7221,9 +7116,7 @@
       <c r="F11" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G11" s="32"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="K11" s="19" t="s">
@@ -7252,9 +7145,7 @@
       <c r="F12" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G12" s="32"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="L12" s="18" t="s">
@@ -7280,9 +7171,7 @@
       <c r="F13" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
         <v>158</v>
       </c>
@@ -7313,9 +7202,7 @@
       <c r="F14" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
         <v>158</v>
       </c>
@@ -7348,11 +7235,9 @@
       <c r="F15" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="33" t="s">
         <v>167</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>168</v>
       </c>
       <c r="I15" s="18"/>
       <c r="K15" s="19" t="s">
@@ -7381,11 +7266,9 @@
       <c r="F16" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="32"/>
+      <c r="H16" s="33" t="s">
         <v>167</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>168</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>161</v>
@@ -7416,9 +7299,7 @@
       <c r="F17" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G17" s="32"/>
       <c r="H17" s="33" t="s">
         <v>163</v>
       </c>
@@ -7449,9 +7330,7 @@
       <c r="F18" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
         <v>163</v>
       </c>
@@ -7484,11 +7363,9 @@
       <c r="F19" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G19" s="32"/>
       <c r="H19" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I19" s="18"/>
       <c r="K19" s="19" t="s">
@@ -7517,11 +7394,9 @@
       <c r="F20" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G20" s="32"/>
       <c r="H20" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>161</v>
@@ -7552,16 +7427,14 @@
       <c r="F21" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G21" s="32"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>160</v>
@@ -7586,13 +7459,11 @@
       <c r="F22" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G22" s="32"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>160</v>
@@ -7617,13 +7488,11 @@
       <c r="F23" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G23" s="32"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>160</v>
@@ -7651,16 +7520,14 @@
       <c r="F24" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G24" s="32"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>160</v>
@@ -7685,9 +7552,7 @@
       <c r="F25" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G25" s="32"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="L25" s="18" t="s">
@@ -7713,9 +7578,7 @@
       <c r="F26" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G26" s="32"/>
       <c r="H26" s="33" t="s">
         <v>158</v>
       </c>
@@ -7746,9 +7609,7 @@
       <c r="F27" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G27" s="32"/>
       <c r="H27" s="33" t="s">
         <v>158</v>
       </c>
@@ -7781,11 +7642,9 @@
       <c r="F28" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G28" s="32"/>
       <c r="H28" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I28" s="18"/>
       <c r="K28" s="19" t="s">
@@ -7814,11 +7673,9 @@
       <c r="F29" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G29" s="32"/>
       <c r="H29" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I29" s="33" t="s">
         <v>161</v>
@@ -7849,11 +7706,9 @@
       <c r="F30" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G30" s="32"/>
       <c r="H30" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I30" s="18"/>
       <c r="K30" s="19" t="s">
@@ -7882,11 +7737,9 @@
       <c r="F31" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G31" s="32"/>
       <c r="H31" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>161</v>
@@ -7917,11 +7770,9 @@
       <c r="F32" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G32" s="32"/>
       <c r="H32" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I32" s="18"/>
       <c r="K32" s="19" t="s">
@@ -7950,11 +7801,9 @@
       <c r="F33" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G33" s="32"/>
       <c r="H33" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I33" s="33" t="s">
         <v>161</v>
@@ -7985,16 +7834,14 @@
       <c r="F34" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G34" s="32"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>160</v>
@@ -8019,13 +7866,11 @@
       <c r="F35" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G35" s="32"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>160</v>
@@ -8050,13 +7895,11 @@
       <c r="F36" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G36" s="32"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L36" s="18" t="s">
         <v>160</v>
@@ -8084,16 +7927,14 @@
       <c r="F37" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G37" s="32"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>160</v>
@@ -8118,9 +7959,7 @@
       <c r="F38" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G38" s="32"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="L38" s="18" t="s">
@@ -8146,9 +7985,7 @@
       <c r="F39" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G39" s="32"/>
       <c r="H39" s="33" t="s">
         <v>158</v>
       </c>
@@ -8179,9 +8016,7 @@
       <c r="F40" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G40" s="32"/>
       <c r="H40" s="33" t="s">
         <v>158</v>
       </c>
@@ -8214,11 +8049,9 @@
       <c r="F41" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G41" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G41" s="32"/>
       <c r="H41" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I41" s="18"/>
       <c r="K41" s="19" t="s">
@@ -8247,11 +8080,9 @@
       <c r="F42" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G42" s="32"/>
       <c r="H42" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I42" s="33" t="s">
         <v>161</v>
@@ -8282,11 +8113,9 @@
       <c r="F43" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G43" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G43" s="32"/>
       <c r="H43" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I43" s="18"/>
       <c r="K43" s="19" t="s">
@@ -8315,11 +8144,9 @@
       <c r="F44" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G44" s="32"/>
       <c r="H44" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>161</v>
@@ -8350,11 +8177,9 @@
       <c r="F45" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G45" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G45" s="32"/>
       <c r="H45" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I45" s="18"/>
       <c r="K45" s="19" t="s">
@@ -8383,11 +8208,9 @@
       <c r="F46" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G46" s="32"/>
       <c r="H46" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I46" s="33" t="s">
         <v>161</v>
@@ -8418,11 +8241,9 @@
       <c r="F47" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G47" s="32"/>
       <c r="H47" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I47" s="18"/>
       <c r="K47" s="19" t="s">
@@ -8451,11 +8272,9 @@
       <c r="F48" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G48" s="32"/>
       <c r="H48" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>161</v>
@@ -8486,16 +8305,14 @@
       <c r="F49" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G49" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G49" s="32"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>160</v>
@@ -8520,13 +8337,11 @@
       <c r="F50" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G50" s="32"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>160</v>
@@ -8551,13 +8366,11 @@
       <c r="F51" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G51" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G51" s="32"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>160</v>
@@ -8585,16 +8398,14 @@
       <c r="F52" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G52" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G52" s="32"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>160</v>
@@ -8619,9 +8430,7 @@
       <c r="F53" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="G53" s="32"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="L53" s="18" t="s">

--- a/test-data/ExecutionController.xlsx
+++ b/test-data/ExecutionController.xlsx
@@ -3,24 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Desktop\Proj1\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034514\PowerBI_New\PowerBI_UIAutomation\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74370E3B-8CAC-4C10-9CF4-DEF5355EF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD84016-6AA3-4F29-9856-3EABADBB9AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
     <sheet name="ExecutionFlow" sheetId="2" r:id="rId2"/>
     <sheet name="APPM_TestData" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="SPlanning_Testdata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="344">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -571,17 +571,513 @@
     <t>Count across percentile buckets by Plant, Routing, Operation &amp; resource</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>mahan.madiwal@jda.com</t>
+  </si>
+  <si>
+    <t>Apisero@2022</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC01</t>
+  </si>
+  <si>
+    <t>TC1_Check if the drop down has data</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC02</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC03</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC04</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC05</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC06</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC07</t>
+  </si>
+  <si>
+    <t>TC2_Check if the drop down has data</t>
+  </si>
+  <si>
+    <t>TC3_Check if the drop down has data</t>
+  </si>
+  <si>
+    <t>TC4_Check if the drop down has data</t>
+  </si>
+  <si>
+    <t>TC5_Check if the drop down has data</t>
+  </si>
+  <si>
+    <t>TC6_Check if the drop down has data</t>
+  </si>
+  <si>
+    <t>TC7_Check if the drop down has data</t>
+  </si>
+  <si>
+    <t>SPlanning_Testdata</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/groups/41000121-9728-4f5f-a602-386eef80da9f/reports/5414f238-97dd-47b2-ae6c-e4cff51ae7e9/ReportSection22c02da5014c4382a04c</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2_Check if the drop down has data for Subcategory </t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Store Number</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC08</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC09</t>
+  </si>
+  <si>
+    <t>From Week</t>
+  </si>
+  <si>
+    <t>To Week</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC10</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC11</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC12</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC13</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC14</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC15</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC16</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC17</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC18</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC19</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC20</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC21</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC22</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC23</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC24</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC25</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC26</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC27</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC28</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC29</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC30</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC31</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC32</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC33</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC34</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC35</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC36</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC37</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC38</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC39</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC40</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC41</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC42</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC43</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC44</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC45</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC46</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC47</t>
+  </si>
+  <si>
+    <t>SpacePlan_TC48</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>TC8_Check if the drop down has data for from filter</t>
+  </si>
+  <si>
+    <t>TC7_Check if the drop down has data for Store Number filter</t>
+  </si>
+  <si>
+    <t>TC6_Check if the drop down has data for Cluster filter</t>
+  </si>
+  <si>
+    <t>TC5_Check if the drop down has data for District filter</t>
+  </si>
+  <si>
+    <t>TC4_Check if the drop down has data for Region filter</t>
+  </si>
+  <si>
+    <t>TC3_Check if the drop down has data for Brand filter</t>
+  </si>
+  <si>
+    <t>TC1_Check if the drop down has data filter</t>
+  </si>
+  <si>
+    <t>TC9_Check if the drop down has data for To filter</t>
+  </si>
+  <si>
+    <t>TC11_Check if the chart represents Planogram ID and reset type for all the months</t>
+  </si>
+  <si>
+    <t>TC10_Check if the search option is enabled for all dropdowns</t>
+  </si>
+  <si>
+    <t>TC12_Check if the chart shows 'Live' and 'Published' data for all the months</t>
+  </si>
+  <si>
+    <t>TC13_Check if last updated date is shown or not</t>
+  </si>
+  <si>
+    <t>TC14_Check if the chart represents sales for all the months</t>
+  </si>
+  <si>
+    <t>TC15_Check if the chart represents units for all the months</t>
+  </si>
+  <si>
+    <t>TC16_Check if the chart represents margin for all the months</t>
+  </si>
+  <si>
+    <t>TC17_Check if the chart shows increase, decrease, total sales units across factors</t>
+  </si>
+  <si>
+    <t>TC18_Check if the table has values or not</t>
+  </si>
+  <si>
+    <t>TC19_Check if right clicking 'Investigate' button allows to drill through</t>
+  </si>
+  <si>
+    <t>TC20_Check if clicking on the icon shows display insights</t>
+  </si>
+  <si>
+    <t>TC21_Check if all chart titles are free from typo errors</t>
+  </si>
+  <si>
+    <t>TC22_Check if last updated date is shown or not</t>
+  </si>
+  <si>
+    <t>TC23_Check all the navigations working between tabs and the questions</t>
+  </si>
+  <si>
+    <t>TC9_Check if the drop down shows all weeks with respective dates To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC8_Check if the drop down shows all weeks with respective dates From </t>
+  </si>
+  <si>
+    <t>TC14_Check if the chart represents sales for all the months Sales</t>
+  </si>
+  <si>
+    <t>TC15_Check if the chart represents sales for all the months Units</t>
+  </si>
+  <si>
+    <t>TC16_Check if the chart represents sales for all the months Units</t>
+  </si>
+  <si>
+    <t>TC17_Check if the chart shows increase, decrease, total sales units across factors for Factor contribution chart</t>
+  </si>
+  <si>
+    <t>TC18_Check if right clicking 'Investigate' button allows to drill through</t>
+  </si>
+  <si>
+    <t>TC22_Check if scrolling is working fine</t>
+  </si>
+  <si>
+    <t>TC24_Check all the navigations working between tabs and the questions</t>
+  </si>
+  <si>
+    <t>TC25_Check if toggle button is working properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC23_Check LastUpdateData is displayed or not </t>
+  </si>
+  <si>
+    <t>TC26_Check if the chart represents unit movement across weeks</t>
+  </si>
+  <si>
+    <t>TC27_Check if the chart represents unit movement across weeks</t>
+  </si>
+  <si>
+    <t>TC27_Check if the chart represents unit movement across weeks AE Chart</t>
+  </si>
+  <si>
+    <t>TC26_Check if the chart represents unit movement across weeks NPE chart</t>
+  </si>
+  <si>
+    <t>TC28_Check if clicking on the icon shows display insights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC29_Check if all chart titles are free from typo errors for tittle </t>
+  </si>
+  <si>
+    <t>TC30_Check if last updated date is shown or not</t>
+  </si>
+  <si>
+    <t>TC31_Check all the navigations working between tabs and the questions</t>
+  </si>
+  <si>
+    <t>TC32_Check if toggle button is working properly</t>
+  </si>
+  <si>
+    <t>TC33_Check if the chart represents demand vs capacity across all the weeks</t>
+  </si>
+  <si>
+    <t>TC35_Check if clicking on the icon shows display insights</t>
+  </si>
+  <si>
+    <t>TC36_Check if all chart titles are free from typo errors</t>
+  </si>
+  <si>
+    <t>TC33_Check if the chart represents demand vs capacity across all the weeks Capacity vs Demand Chart</t>
+  </si>
+  <si>
+    <t>TC34_Check if the chart represents key count across all the weeks Reset Calendar Chart</t>
+  </si>
+  <si>
+    <t>TC35_Check if clicking on the icon shows display insights for Bulb Icon</t>
+  </si>
+  <si>
+    <t>TC36_Check if all chart titles are free from typo errors for Title</t>
+  </si>
+  <si>
+    <t>TC37_Check if last updated date is shown or not for Last Updated Date</t>
+  </si>
+  <si>
+    <t>TC38_Check all the navigations working between tabs and the questions</t>
+  </si>
+  <si>
+    <t>TC39_Check if toggle button is working properly</t>
+  </si>
+  <si>
+    <t>TC39_Check if toggle button is working properly Toggle Button</t>
+  </si>
+  <si>
+    <t>TC40_Check if the chart represents inventory turns across all the months</t>
+  </si>
+  <si>
+    <t>TC41_Check if clicking on the icon shows display insights for Bulb icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC42_Check if all chart titles are free from typo errors for tittle </t>
+  </si>
+  <si>
+    <t>TC43_Check if last updated date is shown or not</t>
+  </si>
+  <si>
+    <t>TC43_Check if last updated date is shown or not Last updated date</t>
+  </si>
+  <si>
+    <t>TC44_Check all the navigations working between tabs and the questions</t>
+  </si>
+  <si>
+    <t>TC44_Check all the navigations working between tabs and the questions Navigation</t>
+  </si>
+  <si>
+    <t>TC45_Check if toggle button is working properly</t>
+  </si>
+  <si>
+    <t>TC45_Check if toggle button is working properly for toggle icon toggle button</t>
+  </si>
+  <si>
+    <t>TC46_Check if there is data in the checkbox</t>
+  </si>
+  <si>
+    <t>TC46_Check if there is data in the checkbox Alerts</t>
+  </si>
+  <si>
+    <t>TC47_Check if there is data in the drop down</t>
+  </si>
+  <si>
+    <t>TC47_Check if there is data in the drop down KPI</t>
+  </si>
+  <si>
+    <t>TC48_Check if the table shows brand, cluster, alerts for each sub category</t>
+  </si>
+  <si>
+    <t>TC24_Check if toggle button is working properly</t>
+  </si>
+  <si>
+    <t>TC29_Check if all chart titles are free from typo errors</t>
+  </si>
+  <si>
+    <t>TC37_Check if last updated date is shown or not</t>
+  </si>
+  <si>
+    <t>TC41_Check if clicking on the icon shows display insights</t>
+  </si>
+  <si>
+    <t>TC42_Check if all chart titles are free from typo errors</t>
+  </si>
+  <si>
+    <t>TC40_Check if the chart represents inventory turns across all the months for  Inventory Turns Chart</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>validateDropDownHasData_Space</t>
+  </si>
+  <si>
+    <t>validateTheSearchButtonAndFromToFilter_Space</t>
+  </si>
+  <si>
+    <t>verifyPlanogramStatus_Space</t>
+  </si>
+  <si>
+    <t>validateProcessEfficiency_Space</t>
+  </si>
+  <si>
+    <t>verifyResetCalender_Space</t>
+  </si>
+  <si>
+    <t>validateLastUpdateData_Space</t>
+  </si>
+  <si>
+    <t>clickonSpaceProductivity_Space</t>
+  </si>
+  <si>
+    <t>verifysalesModule_Space</t>
+  </si>
+  <si>
+    <t>verifyunitsModule_Space</t>
+  </si>
+  <si>
+    <t>verifyMarginModule_Space</t>
+  </si>
+  <si>
+    <t>verifyInvestigateModule_Space</t>
+  </si>
+  <si>
+    <t>verifyDisplayInsights_Space</t>
+  </si>
+  <si>
+    <t>verifyscrolling_Space</t>
+  </si>
+  <si>
+    <t>verifytoggle_Space</t>
+  </si>
+  <si>
+    <t>verifymovementtab_Space</t>
+  </si>
+  <si>
+    <t>verifyMovementtoggle_Space</t>
+  </si>
+  <si>
+    <t>validate_CapacityDemand_Chart_Space</t>
+  </si>
+  <si>
+    <t>validate_CapacityDemand_ResetCalendarChart_Space</t>
+  </si>
+  <si>
+    <t>verifyCapacityDemandtoggle_Space</t>
+  </si>
+  <si>
+    <t>validate_InventoryTurns_Chart_Space</t>
+  </si>
+  <si>
+    <t>verifyInventoryTurnsToggle_Space</t>
+  </si>
+  <si>
+    <t>verifyAlertandMorePage_Space</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +1118,12 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -668,7 +1170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -691,12 +1193,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,9 +1275,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,6 +1308,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1096,19 +1629,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D58"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="109.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="109.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,12 +1674,8 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,10 +2080,8 @@
       <c r="C31" s="6">
         <v>1</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,25 +2392,803 @@
       <c r="E53" s="8"/>
       <c r="F53" s="7"/>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="35">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="35">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="35">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="35">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="35">
+        <v>1</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="35">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="35">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="35">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="35">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="35">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="35">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="35">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="35">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="35">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="35">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="35">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="35">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="35">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="35">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="35">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="35">
+        <v>1</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="35">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="35">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="35">
+        <v>1</v>
+      </c>
+      <c r="D77" s="38"/>
+      <c r="E77" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" s="35">
+        <v>1</v>
+      </c>
+      <c r="D78" s="38"/>
+      <c r="E78" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="35">
+        <v>1</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="35">
+        <v>1</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="35">
+        <v>1</v>
+      </c>
+      <c r="D81" s="38"/>
+      <c r="E81" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="35">
+        <v>1</v>
+      </c>
+      <c r="D82" s="38"/>
+      <c r="E82" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="35">
+        <v>1</v>
+      </c>
+      <c r="D83" s="38"/>
+      <c r="E83" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="35">
+        <v>1</v>
+      </c>
+      <c r="D84" s="38"/>
+      <c r="E84" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="35">
+        <v>1</v>
+      </c>
+      <c r="D85" s="38"/>
+      <c r="E85" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="35">
+        <v>1</v>
+      </c>
+      <c r="D86" s="38"/>
+      <c r="E86" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="35">
+        <v>1</v>
+      </c>
+      <c r="D87" s="38"/>
+      <c r="E87" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="35">
+        <v>1</v>
+      </c>
+      <c r="D88" s="38"/>
+      <c r="E88" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" s="35">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="C90" s="35">
+        <v>1</v>
+      </c>
+      <c r="D90" s="38"/>
+      <c r="E90" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="35">
+        <v>1</v>
+      </c>
+      <c r="D91" s="38"/>
+      <c r="E91" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="35">
+        <v>1</v>
+      </c>
+      <c r="D92" s="38"/>
+      <c r="E92" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="35">
+        <v>1</v>
+      </c>
+      <c r="D93" s="38"/>
+      <c r="E93" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" s="35">
+        <v>1</v>
+      </c>
+      <c r="D94" s="38"/>
+      <c r="E94" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="35">
+        <v>1</v>
+      </c>
+      <c r="D95" s="38"/>
+      <c r="E95" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C96" s="35">
+        <v>1</v>
+      </c>
+      <c r="D96" s="38"/>
+      <c r="E96" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="C97" s="35">
+        <v>1</v>
+      </c>
+      <c r="D97" s="38"/>
+      <c r="E97" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" s="35">
+        <v>1</v>
+      </c>
+      <c r="D98" s="38"/>
+      <c r="E98" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="35">
+        <v>1</v>
+      </c>
+      <c r="D99" s="38"/>
+      <c r="E99" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="35">
+        <v>1</v>
+      </c>
+      <c r="D100" s="38"/>
+      <c r="E100" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="35">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
-  <dimension ref="A1:G713"/>
+  <dimension ref="A1:G699"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A369" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B376" sqref="B376"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="103.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="93.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="50.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="17.140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="7" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="103.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1921,7 +3226,7 @@
         <v>113</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -1936,7 +3241,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -1951,7 +3256,7 @@
         <v>113</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="15"/>
     </row>
@@ -1966,7 +3271,7 @@
         <v>113</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="15"/>
     </row>
@@ -3736,7 +5041,9 @@
       <c r="C160" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="E160" s="15"/>
     </row>
     <row r="161" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5188,1321 +6495,2671 @@
       <c r="D285" s="7"/>
       <c r="E285" s="15"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="16"/>
+    <row r="286" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="36" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="16"/>
-      <c r="B287" s="8"/>
+      <c r="A287" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D287" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="16"/>
-      <c r="B288" s="8"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="16"/>
-      <c r="B289" s="8"/>
+      <c r="A288" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D288" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="36" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="290" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="16"/>
-      <c r="D290" s="7"/>
+      <c r="A290" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="E290" s="15"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="16"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="16"/>
+      <c r="A291" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D291" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="36" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="16"/>
+      <c r="A293" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D293" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="16"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="16"/>
+      <c r="A294" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D294" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="36" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="16"/>
+      <c r="A296" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D296" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="16"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="16"/>
+      <c r="A297" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D297" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="36" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="16"/>
+      <c r="A299" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D299" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="16"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="16"/>
+      <c r="A300" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D300" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="36" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="16"/>
-    </row>
-    <row r="303" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="16"/>
-      <c r="D304" s="7"/>
-      <c r="E304" s="15"/>
-    </row>
-    <row r="305" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="16"/>
-      <c r="D305" s="7"/>
-    </row>
-    <row r="306" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="16"/>
-      <c r="D306" s="7"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="16"/>
+      <c r="A302" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D302" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D303" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D305" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D306" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="36" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="16"/>
+      <c r="A308" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D308" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="16"/>
-    </row>
-    <row r="310" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A309" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D309" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="16"/>
-      <c r="B311" s="8"/>
+      <c r="A311" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D311" t="s">
+        <v>177</v>
+      </c>
       <c r="E311" s="15"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="16"/>
-      <c r="B312" s="8"/>
+      <c r="A312" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D312" t="s">
+        <v>177</v>
+      </c>
       <c r="E312" s="15"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="16"/>
-      <c r="E313" s="15"/>
+    <row r="313" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="36" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="16"/>
+      <c r="A314" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D314" t="s">
+        <v>177</v>
+      </c>
+      <c r="E314" s="15"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="16"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="16"/>
+      <c r="A315" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D315" t="s">
+        <v>177</v>
+      </c>
+      <c r="E315" s="15"/>
+    </row>
+    <row r="316" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="36" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="16"/>
+      <c r="A317" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D317" t="s">
+        <v>177</v>
+      </c>
+      <c r="E317" s="15"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="16"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="16"/>
-      <c r="B319" s="8"/>
+      <c r="A318" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D318" t="s">
+        <v>177</v>
+      </c>
+      <c r="E318" s="15"/>
+    </row>
+    <row r="319" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="36" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="16"/>
-      <c r="B320" s="8"/>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="16"/>
-    </row>
-    <row r="322" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="16"/>
-      <c r="B323" s="8"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="16"/>
-      <c r="B324" s="8"/>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="16"/>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="16"/>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="16"/>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="16"/>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="16"/>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="16"/>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="16"/>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="16"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="16"/>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="16"/>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="16"/>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="16"/>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="16"/>
-      <c r="B337" s="8"/>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="16"/>
-      <c r="B338" s="8"/>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="16"/>
-    </row>
-    <row r="340" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="16"/>
-      <c r="B341" s="8"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="16"/>
-      <c r="B342" s="8"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="16"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="16"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="16"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="16"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="16"/>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="16"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="16"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="16"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="16"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="16"/>
+      <c r="A320" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D320" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D321" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D322" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D324" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D325" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D327" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D328" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D329" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D330" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D332" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D333" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D334" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D335" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D337" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D338" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D339" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D341" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D342" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D343" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D345" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D346" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D347" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D349" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D350" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D351" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="36" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="16"/>
+      <c r="A353" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D353" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="16"/>
+      <c r="A354" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D354" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="16"/>
-      <c r="B355" s="8"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="16"/>
-      <c r="B356" s="8"/>
+      <c r="A355" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D355" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="36" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="16"/>
-    </row>
-    <row r="358" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="17"/>
-      <c r="D359" s="7"/>
-      <c r="E359" s="15"/>
-    </row>
-    <row r="360" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="17"/>
-      <c r="C360" s="19"/>
-      <c r="D360" s="7"/>
-    </row>
-    <row r="361" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="17"/>
-      <c r="B361" s="8"/>
-      <c r="D361" s="7"/>
-    </row>
-    <row r="362" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="17"/>
-      <c r="B362" s="7"/>
-      <c r="C362" s="19"/>
-      <c r="D362" s="7"/>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="17"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="17"/>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="17"/>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="17"/>
-    </row>
-    <row r="367" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="17"/>
-      <c r="B367" s="7"/>
-      <c r="C367" s="7"/>
-      <c r="D367" s="7"/>
+      <c r="A357" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D357" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D358" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D359" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D361" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D362" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D363" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E363" s="15"/>
+    </row>
+    <row r="364" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="36" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D366" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="36" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="17"/>
+      <c r="A368" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D368" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="17"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="17"/>
-      <c r="B370" s="8"/>
-    </row>
-    <row r="371" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="20"/>
-      <c r="D371" s="7"/>
+      <c r="A369" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D369" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D371" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="17"/>
+      <c r="A372" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D372" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="17"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="17"/>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="17"/>
-    </row>
-    <row r="376" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="17"/>
-      <c r="B376" s="7"/>
-      <c r="C376" s="7"/>
-      <c r="D376" s="7"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="17"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="17"/>
+      <c r="A373" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D373" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D375" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D376" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D378" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="17"/>
-      <c r="B379" s="8"/>
-    </row>
-    <row r="380" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="17"/>
-      <c r="D380" s="7"/>
-    </row>
-    <row r="381" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="17"/>
-      <c r="D381" s="7"/>
-    </row>
-    <row r="382" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="17"/>
-      <c r="D382" s="7"/>
-    </row>
-    <row r="383" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="17"/>
-      <c r="C383" s="19"/>
-      <c r="D383" s="7"/>
-    </row>
-    <row r="384" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="17"/>
-      <c r="B384" s="22"/>
-      <c r="D384" s="7"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="17"/>
-      <c r="B385" s="8"/>
-    </row>
-    <row r="386" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D386" s="7"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="16"/>
-      <c r="B387" s="8"/>
+      <c r="A379" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D379" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D381" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D382" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D384" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D385" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D387" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="16"/>
-      <c r="B388" s="8"/>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="16"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="16"/>
+      <c r="A388" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D388" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D390" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="16"/>
+      <c r="A391" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D391" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="16"/>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="16"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="16"/>
+      <c r="A392" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D392" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D394" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="16"/>
+      <c r="A395" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D395" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="16"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="16"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="16"/>
-      <c r="B398" s="8"/>
+      <c r="A396" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D396" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D398" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="16"/>
-      <c r="B399" s="8"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="16"/>
-    </row>
-    <row r="401" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D401" s="7"/>
+      <c r="A399" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D399" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D401" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="16"/>
-      <c r="B402" s="8"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="16"/>
-      <c r="B403" s="8"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="16"/>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="16"/>
+      <c r="A402" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D402" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D404" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B405" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D405" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="406" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="18"/>
-      <c r="D406" s="7"/>
-    </row>
-    <row r="407" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="18"/>
-      <c r="D407" s="7"/>
-    </row>
-    <row r="408" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="18"/>
-      <c r="D408" s="7"/>
-    </row>
-    <row r="409" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="18"/>
-      <c r="B409" s="7"/>
-      <c r="D409" s="7"/>
+      <c r="A406" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D406" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D408" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D409" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="410" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="18"/>
-      <c r="D410" s="7"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="18"/>
-    </row>
-    <row r="412" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="18"/>
+      <c r="A410" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D410" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="18"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="18"/>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="18"/>
+      <c r="A413" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D413" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D415" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="18"/>
-      <c r="B416" s="8"/>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="18"/>
-      <c r="B417" s="8"/>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="16"/>
-    </row>
-    <row r="419" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D419" s="7"/>
-    </row>
-    <row r="420" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C420" s="7"/>
-      <c r="D420" s="7"/>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="16"/>
-      <c r="B421" s="8"/>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="16"/>
-      <c r="B422" s="8"/>
-    </row>
-    <row r="423" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D423" s="7"/>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="16"/>
-      <c r="B424" s="8"/>
-      <c r="E424" s="8"/>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="16"/>
-      <c r="B425" s="8"/>
-      <c r="E425" s="8"/>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="16"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="16"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="16"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="16"/>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="16"/>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="16"/>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="16"/>
-      <c r="B432" s="8"/>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="16"/>
-      <c r="B433" s="8"/>
-    </row>
-    <row r="434" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="16"/>
-      <c r="D434" s="7"/>
-    </row>
-    <row r="435" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="23"/>
-    </row>
-    <row r="436" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="16"/>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="16"/>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="16"/>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="16"/>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="16"/>
-      <c r="B440" s="8"/>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="16"/>
-      <c r="B441" s="8"/>
-    </row>
-    <row r="442" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C442" s="7"/>
-      <c r="D442" s="7"/>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="16"/>
-      <c r="B443" s="8"/>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="16"/>
-      <c r="B444" s="8"/>
-    </row>
-    <row r="445" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D445" s="7"/>
-    </row>
-    <row r="446" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C446" s="7"/>
-      <c r="D446" s="7"/>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="16"/>
-      <c r="B447" s="8"/>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="16"/>
-      <c r="B448" s="8"/>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="16"/>
-    </row>
-    <row r="450" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="17"/>
-      <c r="D451" s="7"/>
-      <c r="E451" s="15"/>
-    </row>
-    <row r="452" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="17"/>
-      <c r="D452" s="7"/>
-      <c r="E452" s="15"/>
-    </row>
-    <row r="453" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="17"/>
-      <c r="D453" s="7"/>
-      <c r="E453" s="15"/>
-    </row>
-    <row r="454" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="17"/>
-      <c r="D454" s="7"/>
-    </row>
-    <row r="455" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B416" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D416" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D417" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B420" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D420" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D423" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D424" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D427" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D428" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B430" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D430" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D431" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D433" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D434" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D435" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D437" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C438" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D438" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D439" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D441" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C442" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D442" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D444" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D445" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E445" s="15"/>
+    </row>
+    <row r="446" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C446" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D446" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D448" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D449" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C450" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D450" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B452" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D452" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D453" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="17"/>
-      <c r="D455" s="7"/>
-    </row>
-    <row r="456" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="8"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="17"/>
-      <c r="E456" s="15"/>
-    </row>
-    <row r="457" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="8"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="17"/>
-      <c r="E457" s="15"/>
-    </row>
-    <row r="458" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="17"/>
     </row>
-    <row r="459" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="17"/>
     </row>
-    <row r="460" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="17"/>
     </row>
-    <row r="461" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="17"/>
     </row>
-    <row r="462" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="17"/>
     </row>
-    <row r="463" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="17"/>
     </row>
-    <row r="464" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="17"/>
-      <c r="C464" s="19"/>
-      <c r="D464" s="8"/>
-    </row>
-    <row r="465" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="17"/>
-      <c r="B465" s="22"/>
-      <c r="D465" s="8"/>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="17"/>
-      <c r="B466" s="8"/>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="17"/>
     </row>
-    <row r="468" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="17"/>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="17"/>
       <c r="B469" s="8"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="17"/>
       <c r="B470" s="8"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="17"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="17"/>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="17"/>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="17"/>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="17"/>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="17"/>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="17"/>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="17"/>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="17"/>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="17"/>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="17"/>
+    <row r="472" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C473" s="7"/>
+      <c r="D473" s="7"/>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="16"/>
+      <c r="B474" s="8"/>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="16"/>
+      <c r="B475" s="8"/>
+      <c r="E475" s="15"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="16"/>
+      <c r="B476" s="8"/>
+      <c r="E476" s="15"/>
+    </row>
+    <row r="477" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="22"/>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="16"/>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="16"/>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="16"/>
+    </row>
+    <row r="481" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C481" s="7"/>
+      <c r="D481" s="7"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="17"/>
+      <c r="A482" s="16"/>
+      <c r="B482" s="8"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="17"/>
+      <c r="A483" s="16"/>
       <c r="B483" s="8"/>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="17"/>
-      <c r="B484" s="8"/>
+      <c r="E483" s="15"/>
+    </row>
+    <row r="484" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="22"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="17"/>
-    </row>
-    <row r="486" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C487" s="7"/>
-      <c r="D487" s="7"/>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="16"/>
-      <c r="B488" s="8"/>
+      <c r="A485" s="16"/>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="16"/>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="16"/>
+    </row>
+    <row r="488" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C488" s="7"/>
+      <c r="D488" s="7"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="16"/>
       <c r="B489" s="8"/>
-      <c r="E489" s="15"/>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="16"/>
-      <c r="B490" s="8"/>
-      <c r="E490" s="15"/>
-    </row>
-    <row r="491" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="23"/>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="16"/>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D492" s="7"/>
+      <c r="E492" s="15"/>
+    </row>
+    <row r="493" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="16"/>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E493" s="15"/>
+    </row>
+    <row r="494" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="16"/>
-    </row>
-    <row r="495" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C495" s="7"/>
+      <c r="E494" s="15"/>
+    </row>
+    <row r="495" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="18"/>
       <c r="D495" s="7"/>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="16"/>
-      <c r="B496" s="8"/>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="16"/>
-      <c r="B497" s="8"/>
-      <c r="E497" s="15"/>
-    </row>
-    <row r="498" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="23"/>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="16"/>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="16"/>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="16"/>
-    </row>
-    <row r="502" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C502" s="7"/>
-      <c r="D502" s="7"/>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="16"/>
-      <c r="B503" s="8"/>
-    </row>
-    <row r="504" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="16"/>
-    </row>
-    <row r="505" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="16"/>
-      <c r="D506" s="7"/>
-      <c r="E506" s="15"/>
-    </row>
-    <row r="507" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="16"/>
-      <c r="E507" s="15"/>
-    </row>
-    <row r="508" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="16"/>
-      <c r="E508" s="15"/>
-    </row>
-    <row r="509" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="18"/>
-      <c r="D509" s="7"/>
-      <c r="E509" s="15"/>
-    </row>
-    <row r="510" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="18"/>
-      <c r="D510" s="7"/>
-    </row>
-    <row r="511" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="18"/>
-      <c r="D511" s="7"/>
-    </row>
-    <row r="512" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="18"/>
-    </row>
-    <row r="513" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="18"/>
-    </row>
-    <row r="514" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="18"/>
-    </row>
-    <row r="515" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C515" s="19"/>
+      <c r="E495" s="15"/>
+    </row>
+    <row r="496" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="18"/>
+      <c r="D496" s="7"/>
+    </row>
+    <row r="497" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="18"/>
+      <c r="D497" s="7"/>
+    </row>
+    <row r="498" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="18"/>
+    </row>
+    <row r="499" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="18"/>
+    </row>
+    <row r="500" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="18"/>
+    </row>
+    <row r="501" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C501" s="19"/>
+      <c r="D501" s="8"/>
+    </row>
+    <row r="502" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="18"/>
+      <c r="B502" s="8"/>
+      <c r="D502" s="8"/>
+    </row>
+    <row r="503" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B503" s="7"/>
+      <c r="C503" s="19"/>
+      <c r="D503" s="8"/>
+    </row>
+    <row r="504" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="20"/>
+      <c r="C504" s="24"/>
+      <c r="D504" s="8"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="18"/>
+      <c r="D505" s="8"/>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="18"/>
+      <c r="D506" s="8"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="18"/>
+      <c r="D507" s="8"/>
+    </row>
+    <row r="508" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="7"/>
+      <c r="C508" s="19"/>
+      <c r="D508" s="8"/>
+    </row>
+    <row r="509" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="7"/>
+      <c r="C509" s="19"/>
+      <c r="D509" s="8"/>
+    </row>
+    <row r="510" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="20"/>
+      <c r="C510" s="24"/>
+      <c r="D510" s="8"/>
+    </row>
+    <row r="511" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="7"/>
+      <c r="C511" s="19"/>
+      <c r="D511" s="8"/>
+    </row>
+    <row r="512" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="7"/>
+      <c r="C512" s="7"/>
+      <c r="D512" s="8"/>
+    </row>
+    <row r="513" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C514" s="7"/>
+      <c r="D514" s="8"/>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="16"/>
+      <c r="B515" s="8"/>
       <c r="D515" s="8"/>
     </row>
-    <row r="516" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="18"/>
-      <c r="B516" s="8"/>
+    <row r="516" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="7"/>
+      <c r="C516" s="7"/>
       <c r="D516" s="8"/>
     </row>
-    <row r="517" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B517" s="7"/>
-      <c r="C517" s="19"/>
-      <c r="D517" s="8"/>
-    </row>
-    <row r="518" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B518" s="21"/>
-      <c r="C518" s="25"/>
+    <row r="517" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="20"/>
+      <c r="C517" s="20"/>
+      <c r="D517" s="20"/>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="16"/>
       <c r="D518" s="8"/>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="18"/>
+      <c r="A519" s="16"/>
       <c r="D519" s="8"/>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="18"/>
+      <c r="A520" s="16"/>
       <c r="D520" s="8"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521" s="18"/>
+    <row r="521" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="7"/>
+      <c r="C521" s="7"/>
       <c r="D521" s="8"/>
     </row>
-    <row r="522" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B522" s="7"/>
-      <c r="C522" s="19"/>
+      <c r="C522" s="7"/>
       <c r="D522" s="8"/>
     </row>
-    <row r="523" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B523" s="7"/>
-      <c r="C523" s="19"/>
-      <c r="D523" s="8"/>
-    </row>
-    <row r="524" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B524" s="21"/>
-      <c r="C524" s="25"/>
-      <c r="D524" s="8"/>
-    </row>
-    <row r="525" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="7"/>
-      <c r="C525" s="19"/>
-      <c r="D525" s="8"/>
-    </row>
-    <row r="526" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B526" s="7"/>
-      <c r="C526" s="7"/>
-      <c r="D526" s="8"/>
-    </row>
-    <row r="527" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C528" s="7"/>
-      <c r="D528" s="8"/>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="20"/>
+      <c r="C523" s="20"/>
+      <c r="D523" s="20"/>
+    </row>
+    <row r="524" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="16"/>
+    </row>
+    <row r="525" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
+    </row>
+    <row r="526" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="16"/>
+    </row>
+    <row r="527" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="20"/>
+      <c r="C527" s="20"/>
+      <c r="D527" s="20"/>
+    </row>
+    <row r="528" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="16"/>
-      <c r="B529" s="8"/>
-      <c r="D529" s="8"/>
-    </row>
-    <row r="530" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B530" s="7"/>
-      <c r="C530" s="7"/>
-      <c r="D530" s="8"/>
-    </row>
-    <row r="531" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B531" s="21"/>
-      <c r="C531" s="21"/>
-      <c r="D531" s="21"/>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A532" s="16"/>
-      <c r="D532" s="8"/>
+      <c r="D529" s="7"/>
+      <c r="E529" s="15"/>
+    </row>
+    <row r="530" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C530" s="19"/>
+      <c r="D530" s="7"/>
+    </row>
+    <row r="531" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="18"/>
+      <c r="B531" s="8"/>
+      <c r="D531" s="7"/>
+    </row>
+    <row r="532" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="7"/>
+      <c r="C532" s="19"/>
+      <c r="D532" s="7"/>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A533" s="16"/>
-      <c r="D533" s="8"/>
+      <c r="A533" s="18"/>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A534" s="16"/>
-      <c r="D534" s="8"/>
-    </row>
-    <row r="535" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B535" s="7"/>
-      <c r="C535" s="7"/>
-      <c r="D535" s="8"/>
-    </row>
-    <row r="536" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B536" s="7"/>
-      <c r="C536" s="7"/>
-      <c r="D536" s="8"/>
-    </row>
-    <row r="537" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B537" s="21"/>
-      <c r="C537" s="21"/>
-      <c r="D537" s="21"/>
-    </row>
-    <row r="538" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="16"/>
-    </row>
-    <row r="539" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="16"/>
-    </row>
-    <row r="540" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="16"/>
-    </row>
-    <row r="541" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B541" s="21"/>
-      <c r="C541" s="21"/>
-      <c r="D541" s="21"/>
-    </row>
-    <row r="542" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A534" s="18"/>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="18"/>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="18"/>
+    </row>
+    <row r="537" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="7"/>
+      <c r="C537" s="7"/>
+      <c r="D537" s="7"/>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="18"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="18"/>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="18"/>
+      <c r="B540" s="8"/>
+    </row>
+    <row r="541" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="18"/>
+      <c r="D541" s="7"/>
+    </row>
+    <row r="542" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="18"/>
+      <c r="D542" s="7"/>
+    </row>
     <row r="543" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="16"/>
       <c r="D543" s="7"/>
-      <c r="E543" s="15"/>
-    </row>
-    <row r="544" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C544" s="19"/>
-      <c r="D544" s="7"/>
-    </row>
-    <row r="545" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="18"/>
-      <c r="B545" s="8"/>
+    </row>
+    <row r="544" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="16"/>
       <c r="D545" s="7"/>
-    </row>
-    <row r="546" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B546" s="7"/>
-      <c r="C546" s="19"/>
+      <c r="E545" s="15"/>
+    </row>
+    <row r="546" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C546" s="7"/>
       <c r="D546" s="7"/>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A547" s="18"/>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A548" s="18"/>
+      <c r="A547" s="16"/>
+      <c r="B547" s="8"/>
+    </row>
+    <row r="548" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="7"/>
+      <c r="C548" s="7"/>
+      <c r="D548" s="7"/>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A549" s="18"/>
+      <c r="A549" s="16"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A550" s="18"/>
-    </row>
-    <row r="551" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B551" s="7"/>
-      <c r="C551" s="7"/>
-      <c r="D551" s="7"/>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A552" s="18"/>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A553" s="18"/>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A554" s="18"/>
-      <c r="B554" s="8"/>
-    </row>
-    <row r="555" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="18"/>
-      <c r="D555" s="7"/>
-    </row>
-    <row r="556" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="18"/>
-      <c r="D556" s="7"/>
-    </row>
-    <row r="557" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="16"/>
-      <c r="D557" s="7"/>
-    </row>
-    <row r="558" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A550" s="16"/>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="16"/>
+    </row>
+    <row r="552" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="7"/>
+      <c r="C552" s="7"/>
+      <c r="D552" s="8"/>
+    </row>
+    <row r="553" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="7"/>
+      <c r="C553" s="7"/>
+      <c r="D553" s="8"/>
+    </row>
+    <row r="554" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="20"/>
+      <c r="C554" s="20"/>
+      <c r="D554" s="20"/>
+    </row>
+    <row r="555" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="7"/>
+      <c r="C555" s="7"/>
+      <c r="D555" s="8"/>
+    </row>
+    <row r="556" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="7"/>
+      <c r="C556" s="7"/>
+      <c r="D556" s="8"/>
+    </row>
+    <row r="557" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="17"/>
+    </row>
     <row r="559" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="16"/>
-      <c r="D559" s="7"/>
-      <c r="E559" s="15"/>
-    </row>
-    <row r="560" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C560" s="7"/>
-      <c r="D560" s="7"/>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A561" s="16"/>
-      <c r="B561" s="8"/>
-    </row>
-    <row r="562" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B562" s="7"/>
-      <c r="C562" s="7"/>
-      <c r="D562" s="7"/>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A563" s="16"/>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564" s="16"/>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565" s="16"/>
-    </row>
-    <row r="566" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B566" s="7"/>
-      <c r="C566" s="7"/>
-      <c r="D566" s="8"/>
-    </row>
-    <row r="567" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B567" s="7"/>
-      <c r="C567" s="7"/>
-      <c r="D567" s="8"/>
-    </row>
-    <row r="568" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B568" s="21"/>
-      <c r="C568" s="21"/>
-      <c r="D568" s="21"/>
-    </row>
-    <row r="569" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="7"/>
-      <c r="C569" s="7"/>
-      <c r="D569" s="8"/>
-    </row>
-    <row r="570" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="7"/>
-      <c r="C570" s="7"/>
-      <c r="D570" s="8"/>
-    </row>
-    <row r="571" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="17"/>
-    </row>
-    <row r="573" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="17"/>
-    </row>
-    <row r="574" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="17"/>
-    </row>
-    <row r="575" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="17"/>
-    </row>
-    <row r="576" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="17"/>
+      <c r="A559" s="17"/>
+    </row>
+    <row r="560" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="17"/>
+    </row>
+    <row r="561" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="17"/>
+    </row>
+    <row r="562" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="17"/>
+    </row>
+    <row r="563" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="17"/>
+    </row>
+    <row r="564" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="4"/>
+      <c r="D565" s="7"/>
+      <c r="E565" s="15"/>
+    </row>
+    <row r="566" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="4"/>
+      <c r="D566" s="7"/>
+      <c r="E566" s="15"/>
+    </row>
+    <row r="567" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="4"/>
+      <c r="D567" s="7"/>
+      <c r="E567" s="15"/>
+    </row>
+    <row r="568" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="4"/>
+      <c r="D568" s="7"/>
+    </row>
+    <row r="569" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="4"/>
+      <c r="D569" s="7"/>
+    </row>
+    <row r="570" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="4"/>
+      <c r="D570" s="7"/>
+      <c r="E570" s="15"/>
+    </row>
+    <row r="571" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="4"/>
+      <c r="D571" s="7"/>
+      <c r="E571" s="15"/>
+    </row>
+    <row r="572" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="4"/>
+      <c r="D572" s="7"/>
+    </row>
+    <row r="573" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="4"/>
+      <c r="D573" s="7"/>
+    </row>
+    <row r="574" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="4"/>
+      <c r="D574" s="7"/>
+    </row>
+    <row r="575" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="4"/>
+      <c r="D575" s="7"/>
+    </row>
+    <row r="576" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="4"/>
+      <c r="D576" s="7"/>
     </row>
     <row r="577" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="17"/>
-    </row>
-    <row r="578" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="4"/>
-      <c r="D579" s="7"/>
-      <c r="E579" s="15"/>
-    </row>
-    <row r="580" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="4"/>
-      <c r="D580" s="7"/>
-      <c r="E580" s="15"/>
-    </row>
-    <row r="581" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="4"/>
-      <c r="D581" s="7"/>
-      <c r="E581" s="15"/>
-    </row>
-    <row r="582" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="4"/>
+      <c r="A577" s="4"/>
+      <c r="D577" s="7"/>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="8"/>
+      <c r="B578" s="8"/>
+      <c r="C578" s="8"/>
+      <c r="E578" s="8"/>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="16"/>
+      <c r="B579" s="8"/>
+      <c r="E579" s="8"/>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="16"/>
+      <c r="B580" s="8"/>
+      <c r="E580" s="8"/>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="16"/>
+    </row>
+    <row r="582" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C582" s="7"/>
       <c r="D582" s="7"/>
     </row>
-    <row r="583" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="4"/>
-      <c r="D583" s="7"/>
-    </row>
-    <row r="584" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="4"/>
-      <c r="D584" s="7"/>
-      <c r="E584" s="15"/>
-    </row>
-    <row r="585" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="4"/>
-      <c r="D585" s="7"/>
-      <c r="E585" s="15"/>
-    </row>
-    <row r="586" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="4"/>
-      <c r="D586" s="7"/>
-    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="16"/>
+      <c r="B583" s="8"/>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="16"/>
+      <c r="B584" s="8"/>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="16"/>
+    </row>
+    <row r="586" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="587" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="4"/>
+      <c r="A587" s="16"/>
       <c r="D587" s="7"/>
-    </row>
-    <row r="588" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="4"/>
+      <c r="E587" s="15"/>
+    </row>
+    <row r="588" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C588" s="19"/>
       <c r="D588" s="7"/>
     </row>
-    <row r="589" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="4"/>
+    <row r="589" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="18"/>
+      <c r="B589" s="8"/>
       <c r="D589" s="7"/>
     </row>
-    <row r="590" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="4"/>
+    <row r="590" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="7"/>
+      <c r="C590" s="19"/>
       <c r="D590" s="7"/>
     </row>
-    <row r="591" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="4"/>
-      <c r="D591" s="7"/>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="18"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A592" s="8"/>
-      <c r="B592" s="8"/>
-      <c r="C592" s="8"/>
-      <c r="E592" s="8"/>
+      <c r="A592" s="18"/>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A593" s="16"/>
-      <c r="B593" s="8"/>
-      <c r="E593" s="8"/>
+      <c r="A593" s="18"/>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A594" s="16"/>
-      <c r="B594" s="8"/>
-      <c r="E594" s="8"/>
-    </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A595" s="16"/>
-    </row>
-    <row r="596" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C596" s="7"/>
-      <c r="D596" s="7"/>
+      <c r="A594" s="18"/>
+    </row>
+    <row r="595" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="7"/>
+      <c r="C595" s="7"/>
+      <c r="D595" s="7"/>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="18"/>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A597" s="16"/>
-      <c r="B597" s="8"/>
+      <c r="A597" s="18"/>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A598" s="16"/>
+      <c r="A598" s="18"/>
       <c r="B598" s="8"/>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A599" s="16"/>
-    </row>
-    <row r="600" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="18"/>
+      <c r="D599" s="7"/>
+    </row>
+    <row r="600" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="18"/>
+      <c r="D600" s="7"/>
+    </row>
     <row r="601" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="16"/>
       <c r="D601" s="7"/>
-      <c r="E601" s="15"/>
-    </row>
-    <row r="602" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C602" s="19"/>
-      <c r="D602" s="7"/>
-    </row>
-    <row r="603" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="18"/>
-      <c r="B603" s="8"/>
+    </row>
+    <row r="602" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C603" s="7"/>
       <c r="D603" s="7"/>
     </row>
-    <row r="604" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B604" s="7"/>
-      <c r="C604" s="19"/>
+    <row r="604" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C604" s="7"/>
       <c r="D604" s="7"/>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A605" s="18"/>
+      <c r="A605" s="16"/>
+      <c r="B605" s="8"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A606" s="18"/>
+      <c r="A606" s="16"/>
+      <c r="B606" s="8"/>
+      <c r="E606" s="15"/>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A607" s="18"/>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A608" s="18"/>
-    </row>
-    <row r="609" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B609" s="7"/>
-      <c r="C609" s="7"/>
-      <c r="D609" s="7"/>
+      <c r="A607" s="16"/>
+      <c r="B607" s="8"/>
+      <c r="E607" s="15"/>
+    </row>
+    <row r="608" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="16"/>
+      <c r="D608" s="7"/>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="16"/>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A610" s="18"/>
+      <c r="A610" s="16"/>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A611" s="18"/>
+      <c r="A611" s="16"/>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A612" s="18"/>
+      <c r="A612" s="16"/>
       <c r="B612" s="8"/>
-    </row>
-    <row r="613" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="18"/>
-      <c r="D613" s="7"/>
-    </row>
-    <row r="614" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="18"/>
-      <c r="D614" s="7"/>
-    </row>
-    <row r="615" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E612" s="15"/>
+    </row>
+    <row r="613" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="16"/>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="16"/>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="16"/>
-      <c r="D615" s="7"/>
-    </row>
-    <row r="616" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="16"/>
+    </row>
     <row r="617" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C617" s="7"/>
       <c r="D617" s="7"/>
     </row>
-    <row r="618" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C618" s="7"/>
-      <c r="D618" s="7"/>
-    </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="16"/>
+      <c r="B618" s="8"/>
+    </row>
+    <row r="619" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="16"/>
-      <c r="B619" s="8"/>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A620" s="16"/>
-      <c r="B620" s="8"/>
-      <c r="E620" s="15"/>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A621" s="16"/>
-      <c r="B621" s="8"/>
+    </row>
+    <row r="620" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="4"/>
       <c r="E621" s="15"/>
     </row>
-    <row r="622" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="16"/>
+    <row r="622" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="4"/>
       <c r="D622" s="7"/>
-    </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A623" s="16"/>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A624" s="16"/>
-    </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A625" s="16"/>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A626" s="16"/>
-      <c r="B626" s="8"/>
-      <c r="E626" s="15"/>
-    </row>
-    <row r="627" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="16"/>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A628" s="16"/>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A629" s="16"/>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A630" s="16"/>
-    </row>
-    <row r="631" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C631" s="7"/>
-      <c r="D631" s="7"/>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A632" s="16"/>
-      <c r="B632" s="8"/>
-    </row>
-    <row r="633" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="16"/>
-    </row>
-    <row r="634" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E622" s="15"/>
+    </row>
+    <row r="623" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="4"/>
+      <c r="D623" s="7"/>
+      <c r="E623" s="15"/>
+    </row>
+    <row r="624" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="4"/>
+      <c r="D624" s="7"/>
+      <c r="E624" s="15"/>
+    </row>
+    <row r="625" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="4"/>
+      <c r="D625" s="7"/>
+    </row>
+    <row r="626" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="4"/>
+      <c r="D626" s="7"/>
+    </row>
+    <row r="627" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="4"/>
+      <c r="D627" s="7"/>
+    </row>
+    <row r="628" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="4"/>
+      <c r="D628" s="7"/>
+    </row>
+    <row r="629" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="4"/>
+      <c r="D629" s="7"/>
+    </row>
+    <row r="630" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="4"/>
+      <c r="D634" s="7"/>
+      <c r="E634" s="15"/>
+    </row>
     <row r="635" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
-      <c r="E635" s="15"/>
+      <c r="D635" s="7"/>
     </row>
     <row r="636" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="D636" s="7"/>
-      <c r="E636" s="15"/>
     </row>
     <row r="637" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="D637" s="7"/>
-      <c r="E637" s="15"/>
     </row>
     <row r="638" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="D638" s="7"/>
-      <c r="E638" s="15"/>
-    </row>
-    <row r="639" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="4"/>
-      <c r="D639" s="7"/>
+    </row>
+    <row r="639" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B639" s="8"/>
+      <c r="C639" s="8"/>
+      <c r="D639" s="8"/>
     </row>
     <row r="640" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="4"/>
-      <c r="D640" s="7"/>
+      <c r="A640" s="25"/>
     </row>
     <row r="641" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="4"/>
-      <c r="D641" s="7"/>
+      <c r="A641" s="25"/>
     </row>
     <row r="642" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="4"/>
-      <c r="D642" s="7"/>
-    </row>
-    <row r="643" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="4"/>
-      <c r="D643" s="7"/>
-    </row>
-    <row r="644" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="25"/>
+    </row>
+    <row r="643" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
+      <c r="B644" s="8"/>
+      <c r="E644" s="15"/>
     </row>
     <row r="645" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
+      <c r="D645" s="7"/>
     </row>
     <row r="646" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
-    </row>
-    <row r="647" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="648" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D646" s="7"/>
+    </row>
+    <row r="647" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="4"/>
+      <c r="D647" s="7"/>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
-      <c r="D648" s="7"/>
       <c r="E648" s="15"/>
     </row>
-    <row r="649" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
-      <c r="D649" s="7"/>
-    </row>
-    <row r="650" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E649" s="15"/>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
-      <c r="D650" s="7"/>
+      <c r="E650" s="15"/>
     </row>
     <row r="651" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
@@ -6512,25 +9169,29 @@
       <c r="A652" s="4"/>
       <c r="D652" s="7"/>
     </row>
-    <row r="653" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B653" s="8"/>
-      <c r="C653" s="8"/>
-      <c r="D653" s="8"/>
-    </row>
-    <row r="654" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="26"/>
-    </row>
+    <row r="653" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="4"/>
+      <c r="D653" s="7"/>
+    </row>
+    <row r="654" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="655" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="26"/>
+      <c r="A655" s="4"/>
+      <c r="D655" s="7"/>
+      <c r="E655" s="15"/>
     </row>
     <row r="656" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="26"/>
-    </row>
-    <row r="657" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="4"/>
+      <c r="D656" s="7"/>
+      <c r="E656" s="15"/>
+    </row>
+    <row r="657" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="4"/>
+      <c r="D657" s="7"/>
+      <c r="E657" s="15"/>
+    </row>
+    <row r="658" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
-      <c r="B658" s="8"/>
-      <c r="E658" s="15"/>
+      <c r="D658" s="7"/>
     </row>
     <row r="659" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
@@ -6544,9 +9205,9 @@
       <c r="A661" s="4"/>
       <c r="D661" s="7"/>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
-      <c r="E662" s="15"/>
+      <c r="D662" s="7"/>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
@@ -6556,114 +9217,115 @@
       <c r="A664" s="4"/>
       <c r="E664" s="15"/>
     </row>
-    <row r="665" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
-      <c r="D665" s="7"/>
+      <c r="E665" s="15"/>
     </row>
     <row r="666" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
-      <c r="D666" s="7"/>
     </row>
     <row r="667" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
-      <c r="D667" s="7"/>
-    </row>
-    <row r="668" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="668" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="4"/>
+    </row>
     <row r="669" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
+      <c r="B669" s="21"/>
       <c r="D669" s="7"/>
       <c r="E669" s="15"/>
     </row>
     <row r="670" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="D670" s="7"/>
-      <c r="E670" s="15"/>
     </row>
     <row r="671" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="D671" s="7"/>
       <c r="E671" s="15"/>
     </row>
-    <row r="672" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="4"/>
-      <c r="D672" s="7"/>
-    </row>
+    <row r="672" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="673" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="D673" s="7"/>
+      <c r="E673" s="15"/>
     </row>
     <row r="674" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="D674" s="7"/>
+      <c r="E674" s="15"/>
     </row>
     <row r="675" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="D675" s="7"/>
+      <c r="E675" s="15"/>
     </row>
     <row r="676" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="D676" s="7"/>
-    </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E676" s="15"/>
+    </row>
+    <row r="677" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
-      <c r="E677" s="15"/>
-    </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D677" s="7"/>
+    </row>
+    <row r="678" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
-      <c r="E678" s="15"/>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D678" s="7"/>
+    </row>
+    <row r="679" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
-      <c r="E679" s="15"/>
+      <c r="D679" s="7"/>
     </row>
     <row r="680" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
+      <c r="D680" s="7"/>
     </row>
     <row r="681" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
-    </row>
-    <row r="682" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D681" s="7"/>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
-    </row>
-    <row r="683" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E682" s="15"/>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
-      <c r="B683" s="22"/>
-      <c r="D683" s="7"/>
       <c r="E683" s="15"/>
     </row>
-    <row r="684" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
-      <c r="D684" s="7"/>
+      <c r="E684" s="15"/>
     </row>
     <row r="685" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="D685" s="7"/>
-      <c r="E685" s="15"/>
-    </row>
-    <row r="686" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="686" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="4"/>
+      <c r="D686" s="7"/>
+    </row>
     <row r="687" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="D687" s="7"/>
-      <c r="E687" s="15"/>
     </row>
     <row r="688" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="D688" s="7"/>
-      <c r="E688" s="15"/>
     </row>
     <row r="689" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="D689" s="7"/>
-      <c r="E689" s="15"/>
     </row>
     <row r="690" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="D690" s="7"/>
-      <c r="E690" s="15"/>
     </row>
     <row r="691" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="D691" s="7"/>
+      <c r="E691" s="15"/>
     </row>
     <row r="692" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
@@ -6672,88 +9334,33 @@
     <row r="693" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="D693" s="7"/>
-    </row>
-    <row r="694" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="4"/>
-      <c r="D694" s="7"/>
-    </row>
-    <row r="695" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E693" s="15"/>
+    </row>
+    <row r="694" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
-      <c r="D695" s="7"/>
-    </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B695" s="8"/>
+      <c r="E695" s="15"/>
+    </row>
+    <row r="696" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
-      <c r="E696" s="15"/>
-    </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="697" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
-      <c r="E697" s="15"/>
-    </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D697" s="7"/>
+    </row>
+    <row r="698" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
-      <c r="E698" s="15"/>
+      <c r="D698" s="7"/>
     </row>
     <row r="699" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="D699" s="7"/>
     </row>
-    <row r="700" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="4"/>
-      <c r="D700" s="7"/>
-    </row>
-    <row r="701" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="4"/>
-      <c r="D701" s="7"/>
-    </row>
-    <row r="702" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="4"/>
-      <c r="D702" s="7"/>
-    </row>
-    <row r="703" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="4"/>
-      <c r="D703" s="7"/>
-    </row>
-    <row r="704" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="4"/>
-      <c r="D704" s="7"/>
-    </row>
-    <row r="705" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="4"/>
-      <c r="D705" s="7"/>
-      <c r="E705" s="15"/>
-    </row>
-    <row r="706" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="4"/>
-      <c r="D706" s="7"/>
-    </row>
-    <row r="707" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="4"/>
-      <c r="D707" s="7"/>
-      <c r="E707" s="15"/>
-    </row>
-    <row r="708" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A709" s="4"/>
-      <c r="B709" s="8"/>
-      <c r="E709" s="15"/>
-    </row>
-    <row r="710" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="4"/>
-    </row>
-    <row r="711" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="4"/>
-      <c r="D711" s="7"/>
-    </row>
-    <row r="712" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="4"/>
-      <c r="D712" s="7"/>
-    </row>
-    <row r="713" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="4"/>
-      <c r="D713" s="7"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6761,71 +9368,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="F43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="0" style="35" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.7109375" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="53.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" style="35" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" hidden="true" style="34" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="39.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="25.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="7" width="16.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="18.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="53.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="7" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" hidden="true" style="34" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="7" width="25.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18">
@@ -6840,11 +9447,11 @@
       <c r="E2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I2" s="18"/>
@@ -6856,7 +9463,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="18">
@@ -6871,25 +9478,25 @@
       <c r="E3" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="34"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="18">
@@ -6904,21 +9511,21 @@
       <c r="E4" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="34"/>
+      <c r="K4" s="33"/>
       <c r="L4" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="34"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="18">
@@ -6933,14 +9540,14 @@
       <c r="E5" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>161</v>
       </c>
       <c r="L5" s="18" t="s">
@@ -6948,7 +9555,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="18">
@@ -6963,11 +9570,11 @@
       <c r="E6" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
         <v>163</v>
       </c>
       <c r="L6" s="18" t="s">
@@ -6975,7 +9582,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="18">
@@ -6990,14 +9597,14 @@
       <c r="E7" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>161</v>
       </c>
       <c r="L7" s="18" t="s">
@@ -7005,7 +9612,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="18">
@@ -7020,10 +9627,10 @@
       <c r="E8" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="19" t="s">
@@ -7037,7 +9644,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="18">
@@ -7052,10 +9659,10 @@
       <c r="E9" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="19" t="s">
@@ -7066,7 +9673,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="18">
@@ -7081,10 +9688,10 @@
       <c r="E10" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="19" t="s">
@@ -7098,7 +9705,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="18">
@@ -7113,10 +9720,10 @@
       <c r="E11" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="K11" s="19" t="s">
@@ -7127,7 +9734,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="18">
@@ -7142,10 +9749,10 @@
       <c r="E12" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="L12" s="18" t="s">
@@ -7153,7 +9760,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="18">
@@ -7168,11 +9775,11 @@
       <c r="E13" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I13" s="18"/>
@@ -7184,7 +9791,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="18">
@@ -7199,25 +9806,25 @@
       <c r="E14" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33" t="s">
+      <c r="G14" s="31"/>
+      <c r="H14" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="34"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="18">
@@ -7232,11 +9839,11 @@
       <c r="E15" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="32" t="s">
         <v>167</v>
       </c>
       <c r="I15" s="18"/>
@@ -7248,7 +9855,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="18">
@@ -7263,25 +9870,25 @@
       <c r="E16" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="34"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M16" s="34"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="18">
@@ -7296,11 +9903,11 @@
       <c r="E17" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33" t="s">
+      <c r="G17" s="31"/>
+      <c r="H17" s="32" t="s">
         <v>163</v>
       </c>
       <c r="I17" s="18"/>
@@ -7312,7 +9919,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="18">
@@ -7327,25 +9934,25 @@
       <c r="E18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="31"/>
+      <c r="H18" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="34"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M18" s="34"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="18">
@@ -7360,11 +9967,11 @@
       <c r="E19" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33" t="s">
+      <c r="G19" s="31"/>
+      <c r="H19" s="32" t="s">
         <v>168</v>
       </c>
       <c r="I19" s="18"/>
@@ -7376,7 +9983,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="18">
@@ -7391,25 +9998,25 @@
       <c r="E20" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="34"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M20" s="34"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="18">
@@ -7424,10 +10031,10 @@
       <c r="E21" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19" t="s">
@@ -7441,7 +10048,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="18">
@@ -7456,10 +10063,10 @@
       <c r="E22" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="32"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19" t="s">
@@ -7470,7 +10077,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="18">
@@ -7485,10 +10092,10 @@
       <c r="E23" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19" t="s">
@@ -7502,7 +10109,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="18">
@@ -7517,10 +10124,10 @@
       <c r="E24" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="32"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="19" t="s">
@@ -7534,7 +10141,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="18">
@@ -7549,10 +10156,10 @@
       <c r="E25" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="L25" s="18" t="s">
@@ -7560,7 +10167,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="18">
@@ -7575,11 +10182,11 @@
       <c r="E26" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I26" s="18"/>
@@ -7591,7 +10198,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="18">
@@ -7606,25 +10213,25 @@
       <c r="E27" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33" t="s">
+      <c r="G27" s="31"/>
+      <c r="H27" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="34"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M27" s="34"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="18">
@@ -7639,11 +10246,11 @@
       <c r="E28" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="32" t="s">
         <v>171</v>
       </c>
       <c r="I28" s="18"/>
@@ -7655,7 +10262,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="18">
@@ -7670,25 +10277,25 @@
       <c r="E29" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="34"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M29" s="34"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="18">
@@ -7703,11 +10310,11 @@
       <c r="E30" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33" t="s">
+      <c r="G30" s="31"/>
+      <c r="H30" s="32" t="s">
         <v>172</v>
       </c>
       <c r="I30" s="18"/>
@@ -7719,7 +10326,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="18">
@@ -7734,25 +10341,25 @@
       <c r="E31" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33" t="s">
+      <c r="G31" s="31"/>
+      <c r="H31" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="34"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M31" s="34"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="18">
@@ -7767,11 +10374,11 @@
       <c r="E32" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33" t="s">
+      <c r="G32" s="31"/>
+      <c r="H32" s="32" t="s">
         <v>173</v>
       </c>
       <c r="I32" s="18"/>
@@ -7783,7 +10390,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="18">
@@ -7798,25 +10405,25 @@
       <c r="E33" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33" t="s">
+      <c r="G33" s="31"/>
+      <c r="H33" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="34"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M33" s="34"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B34" s="18">
@@ -7831,10 +10438,10 @@
       <c r="E34" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="32"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19" t="s">
@@ -7848,7 +10455,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="18">
@@ -7863,10 +10470,10 @@
       <c r="E35" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="32"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19" t="s">
@@ -7877,7 +10484,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="18">
@@ -7892,10 +10499,10 @@
       <c r="E36" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="32"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="19" t="s">
@@ -7909,7 +10516,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B37" s="18">
@@ -7924,10 +10531,10 @@
       <c r="E37" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="32"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="19" t="s">
@@ -7941,7 +10548,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="18">
@@ -7956,10 +10563,10 @@
       <c r="E38" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="32"/>
+      <c r="G38" s="31"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="L38" s="18" t="s">
@@ -7967,7 +10574,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="18">
@@ -7982,11 +10589,11 @@
       <c r="E39" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33" t="s">
+      <c r="G39" s="31"/>
+      <c r="H39" s="32" t="s">
         <v>158</v>
       </c>
       <c r="I39" s="18"/>
@@ -7998,7 +10605,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B40" s="18">
@@ -8013,25 +10620,25 @@
       <c r="E40" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33" t="s">
+      <c r="G40" s="31"/>
+      <c r="H40" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="34"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M40" s="34"/>
+      <c r="M40" s="33"/>
     </row>
     <row r="41" spans="1:13" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="18">
@@ -8046,11 +10653,11 @@
       <c r="E41" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33" t="s">
+      <c r="G41" s="31"/>
+      <c r="H41" s="32" t="s">
         <v>171</v>
       </c>
       <c r="I41" s="18"/>
@@ -8062,7 +10669,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="18">
@@ -8077,25 +10684,25 @@
       <c r="E42" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33" t="s">
+      <c r="G42" s="31"/>
+      <c r="H42" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I42" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="34"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M42" s="34"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="18">
@@ -8110,11 +10717,11 @@
       <c r="E43" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33" t="s">
+      <c r="G43" s="31"/>
+      <c r="H43" s="32" t="s">
         <v>172</v>
       </c>
       <c r="I43" s="18"/>
@@ -8126,7 +10733,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="18">
@@ -8141,25 +10748,25 @@
       <c r="E44" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33" t="s">
+      <c r="G44" s="31"/>
+      <c r="H44" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="34"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M44" s="34"/>
+      <c r="M44" s="33"/>
     </row>
     <row r="45" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="18">
@@ -8174,11 +10781,11 @@
       <c r="E45" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33" t="s">
+      <c r="G45" s="31"/>
+      <c r="H45" s="32" t="s">
         <v>173</v>
       </c>
       <c r="I45" s="18"/>
@@ -8190,7 +10797,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>93</v>
       </c>
       <c r="B46" s="18">
@@ -8205,25 +10812,25 @@
       <c r="E46" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33" t="s">
+      <c r="G46" s="31"/>
+      <c r="H46" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="34"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M46" s="34"/>
+      <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="18">
@@ -8238,11 +10845,11 @@
       <c r="E47" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33" t="s">
+      <c r="G47" s="31"/>
+      <c r="H47" s="32" t="s">
         <v>171</v>
       </c>
       <c r="I47" s="18"/>
@@ -8254,7 +10861,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="18">
@@ -8269,25 +10876,25 @@
       <c r="E48" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33" t="s">
+      <c r="G48" s="31"/>
+      <c r="H48" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="34"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M48" s="34"/>
+      <c r="M48" s="33"/>
     </row>
     <row r="49" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B49" s="18">
@@ -8302,10 +10909,10 @@
       <c r="E49" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="F49" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G49" s="32"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="19" t="s">
@@ -8319,7 +10926,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="18">
@@ -8334,10 +10941,10 @@
       <c r="E50" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="32"/>
+      <c r="G50" s="31"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="19" t="s">
@@ -8348,7 +10955,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="18">
@@ -8363,10 +10970,10 @@
       <c r="E51" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G51" s="32"/>
+      <c r="G51" s="31"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="19" t="s">
@@ -8380,7 +10987,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="18">
@@ -8395,10 +11002,10 @@
       <c r="E52" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G52" s="32"/>
+      <c r="G52" s="31"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="19" t="s">
@@ -8412,7 +11019,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="18">
@@ -8427,10 +11034,10 @@
       <c r="E53" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="32"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="L53" s="18" t="s">
@@ -8438,18 +11045,1139 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E8DBDF9B-153A-4BA1-8113-7C1F53275C5A}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{4DC0BDC3-9230-4026-8EB7-7F686E2BD00E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D10D436-419C-4623-BECE-6A3A9D0978E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="18">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="18">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="18">
+        <v>1</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="18">
+        <v>1</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="18">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="18">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="18">
+        <v>1</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="18">
+        <v>1</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="18">
+        <v>1</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="18">
+        <v>1</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="18">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="18">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="18">
+        <v>1</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="18">
+        <v>1</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5EB0CAA8-D8CB-4A43-B835-CF22E7B53A32}"/>
+    <hyperlink ref="E3:E7" r:id="rId2" display="mahan.madiwal@jda.com" xr:uid="{623896CA-4D91-4B72-B380-BD4976AE1E15}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{5A91A557-2F9D-46F0-96AF-BD46FB50B8AB}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{EB2D2406-3F94-4722-947D-F51479A36ADE}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{4DA61723-3514-4ACA-B7D2-CA626CD0C8C1}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{32780D05-59AE-49F9-B1B6-E45E4340133E}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{280FE64B-21FF-4F88-BBF8-0BBF5FE9DB8C}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{EE6E8FEC-2789-46BA-A63A-18B069396D99}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{32E7295A-A400-439A-B99E-B31BF1542B69}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{B5EB79EA-EF77-4A5E-98BB-25AB4474CBBC}"/>
+    <hyperlink ref="E9" r:id="rId11" xr:uid="{A931F6E7-4A97-405A-BB4B-01FDC4D80448}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{B0676D63-E5C1-4B22-8D7C-3B54F68F80D0}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{00DBC1EF-7359-420C-B240-C7F25FAAEDBA}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{00587A0D-817B-4A3B-9648-0DDBA5BBDA99}"/>
+    <hyperlink ref="E11:E49" r:id="rId15" display="mahan.madiwal@jda.com" xr:uid="{A7968FEF-BFBE-4524-9D61-1473DE5B2692}"/>
+    <hyperlink ref="F11" r:id="rId16" xr:uid="{4A2B3039-6DFD-484A-B73E-A893388B18B7}"/>
+    <hyperlink ref="F12" r:id="rId17" xr:uid="{06677FBC-77B6-41FF-A997-C401B8CC09B6}"/>
+    <hyperlink ref="F13" r:id="rId18" xr:uid="{396595E7-4651-45CC-9A9C-6DE8FA22BA3B}"/>
+    <hyperlink ref="F14" r:id="rId19" xr:uid="{BA0A9897-E932-4B65-9862-D4DD051FA954}"/>
+    <hyperlink ref="F15" r:id="rId20" xr:uid="{347D3E76-0798-426A-8A5C-A2B08A83929E}"/>
+    <hyperlink ref="F16" r:id="rId21" xr:uid="{8EB55CDD-D49F-4273-8FDE-0AB4A71C6C03}"/>
+    <hyperlink ref="F17" r:id="rId22" xr:uid="{77D87F89-3C08-4BAC-9A2E-6305C85A745B}"/>
+    <hyperlink ref="F18" r:id="rId23" xr:uid="{6C33DB60-1C0F-4DEA-AF5F-54C724688E73}"/>
+    <hyperlink ref="F19" r:id="rId24" xr:uid="{63E6AD5F-B72D-40B7-99ED-C3CB5210B256}"/>
+    <hyperlink ref="F20" r:id="rId25" xr:uid="{4F4B4D36-C46D-4A44-AF18-D816C706413B}"/>
+    <hyperlink ref="F21" r:id="rId26" xr:uid="{6D3F8E19-15EE-4C9E-A4DD-78F9B49AEA4E}"/>
+    <hyperlink ref="F22" r:id="rId27" xr:uid="{28A2C1EB-2AE2-44FD-B19F-5017B55FD7F7}"/>
+    <hyperlink ref="F23" r:id="rId28" xr:uid="{9B60D1A1-2A26-4832-85AD-22DF7EB66764}"/>
+    <hyperlink ref="F24" r:id="rId29" xr:uid="{BAFB94AA-2D18-4DF5-8722-9626D41BE7B5}"/>
+    <hyperlink ref="F25" r:id="rId30" xr:uid="{AE7C0356-9D5D-4BEB-BE09-F858B5D46B16}"/>
+    <hyperlink ref="F26" r:id="rId31" xr:uid="{ECAEBD6C-F472-475B-A5E7-F5956E95A312}"/>
+    <hyperlink ref="F27" r:id="rId32" xr:uid="{8FDA750B-D387-463C-B503-07F2A743BF54}"/>
+    <hyperlink ref="F28" r:id="rId33" xr:uid="{92A04766-2291-40D0-BE46-C5B94633ADE3}"/>
+    <hyperlink ref="F29" r:id="rId34" xr:uid="{75F2E598-FD28-434B-8D0C-3F344D4391E4}"/>
+    <hyperlink ref="F30" r:id="rId35" xr:uid="{A9567AA3-CC50-473D-A219-72A0D4709F35}"/>
+    <hyperlink ref="F31" r:id="rId36" xr:uid="{31399E07-3CF0-4615-BE26-5E1D52F32C06}"/>
+    <hyperlink ref="F32" r:id="rId37" xr:uid="{49348735-19C4-4554-91AA-BDD3C992D4FA}"/>
+    <hyperlink ref="F33" r:id="rId38" xr:uid="{89F4B3FC-CA19-4197-9B82-DDA04600D85C}"/>
+    <hyperlink ref="F34" r:id="rId39" xr:uid="{1EF6CBDD-267C-48C9-A2F1-8AF333406713}"/>
+    <hyperlink ref="F35" r:id="rId40" xr:uid="{7FBE5651-E392-4E5C-844C-7C1CAE152C6F}"/>
+    <hyperlink ref="F36" r:id="rId41" xr:uid="{12DD6B87-33D8-4402-B904-8B0CEA664E54}"/>
+    <hyperlink ref="F37" r:id="rId42" xr:uid="{815F6B6F-232A-4DED-B333-6AC647480D6C}"/>
+    <hyperlink ref="F38" r:id="rId43" xr:uid="{5C3DD687-87E3-49CC-A070-C35247BFE2EF}"/>
+    <hyperlink ref="F39" r:id="rId44" xr:uid="{D1463BD9-A054-460D-AB0D-B665A6BA89DD}"/>
+    <hyperlink ref="F40" r:id="rId45" xr:uid="{77061E85-C450-4F2D-98F9-D3FF8FE6233B}"/>
+    <hyperlink ref="F41" r:id="rId46" xr:uid="{96607E28-CE13-438A-9590-E2AC1C4A8439}"/>
+    <hyperlink ref="F42" r:id="rId47" xr:uid="{79587D31-0A26-4131-8BAF-2498588E6DCA}"/>
+    <hyperlink ref="F43" r:id="rId48" xr:uid="{58A81647-0779-4CCF-8BE7-55878A3D8C6D}"/>
+    <hyperlink ref="F44" r:id="rId49" xr:uid="{E566B5BC-C5B4-4E3A-84A2-5887DD3D2DD5}"/>
+    <hyperlink ref="F45" r:id="rId50" xr:uid="{C3B00FD1-ECAC-4AFA-94B5-7BB35747F7CC}"/>
+    <hyperlink ref="F46" r:id="rId51" xr:uid="{548171F1-4054-4E54-BC8B-ECBA46A656B2}"/>
+    <hyperlink ref="F47" r:id="rId52" xr:uid="{7AE325BB-FAB3-44F9-8F80-27CA36154F06}"/>
+    <hyperlink ref="F48" r:id="rId53" xr:uid="{4CE3E376-EFB4-4636-B1DC-C3AEFE238561}"/>
+    <hyperlink ref="F49" r:id="rId54" xr:uid="{1A9CC308-B1FD-43EE-87A2-7474B86B8DDE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/test-data/ExecutionController.xlsx
+++ b/test-data/ExecutionController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86BF58-7B49-42CE-A9DF-E1776DA95556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06128D9B-0359-4888-9E80-A4D072C4BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="1" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -5259,7 +5259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
   <dimension ref="A1:G968"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
@@ -16369,7 +16369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/test-data/ExecutionController.xlsx
+++ b/test-data/ExecutionController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06128D9B-0359-4888-9E80-A4D072C4BD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B746D869-0E6A-42C3-82CE-1581E375EFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="1" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>

--- a/test-data/ExecutionController.xlsx
+++ b/test-data/ExecutionController.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A930E8-DB24-49A3-935E-59320C494200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC584B5-BAD5-429E-9AF1-866766E8CF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="5" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4448" uniqueCount="614">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1881,10 +1881,7 @@
     <t>TC66_Supplier Review_Chart_Check if chart shows Volume</t>
   </si>
   <si>
-    <t>HEADLESS</t>
-  </si>
-  <si>
-    <t>Phantoon*1984a</t>
+    <t>CHROME</t>
   </si>
 </sst>
 </file>
@@ -2495,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D263"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16435,9 +16432,7 @@
       <c r="E2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>614</v>
-      </c>
+      <c r="F2" s="25"/>
       <c r="G2" s="26" t="s">
         <v>138</v>
       </c>
@@ -17889,7 +17884,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F78"/>
+      <selection activeCell="C2" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19121,9 +19116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74529C94-D0E7-4C05-8D75-C6E7A59047DA}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
